--- a/biology/Botanique/Trillium/Trillium.xlsx
+++ b/biology/Botanique/Trillium/Trillium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trille
 Trillium est un genre de plantes, les trilles, monocotylédones de la famille des Liliaceae selon la classification classique, ou des Melanthiaceae selon la classification phylogénétique.
@@ -517,14 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les espèces américaines
-Sous-genre Trillium
-Sous-genre Phyllantherum
-Les espèces asiatiques
-Les espèces asiatiques sont rattachées au sous-genre Trillium.
-Remarques
-Trillium smallii est une espèce allopolyploïde très variable d'origine hybride (Trillium apetalon × Trillium sp.).Trillium hagae est une espèce triploïde ou hexaploïde d'origine hybride (Trillium camschatcense × Trillium tschonoskii).
-Trillium govanianum Wall., une espèce miniature à fleur à 6 tépales identiques vert pourpré, est actuellement rattachée à un genre séparé appelé Trillidium.
+          <t>Les espèces asiatiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces asiatiques sont rattachées au sous-genre Trillium.
 </t>
         </is>
       </c>
@@ -550,10 +561,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les espèces asiatiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Remarques</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trillium smallii est une espèce allopolyploïde très variable d'origine hybride (Trillium apetalon × Trillium sp.).Trillium hagae est une espèce triploïde ou hexaploïde d'origine hybride (Trillium camschatcense × Trillium tschonoskii).
+Trillium govanianum Wall., une espèce miniature à fleur à 6 tépales identiques vert pourpré, est actuellement rattachée à un genre séparé appelé Trillidium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trillium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trillium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de l’est de l’Amérique du Nord sont les plus faciles à cultiver. Celles de l’ouest de l’Amérique du Nord et d’Asie requièrent un climat maritime doux et humide, comme celui de la Normandie ou des îles Britanniques.
 Les Trilliums demandent un sol limoneux, riche en humus, légèrement ombragé et bien drainé, à pH généralement neutre. Quelques espèces toutefois, comme Trillium rivale, sont calcicoles et quelques autres, comme Trillium undulatum, sont calcifuges. Les rhizomes doivent être plantés à une profondeur de 5 à 7,5 cm. Il faudra ensuite faire preuve de patience, car il faudra souvent deux ans avant que les plantes montrent leurs premières fleurs. Comme les feuilles des Trilliums disparaissent assez vite, il ne faut pas trop les grouper : il est préférable d'intercaler d’autres plantes prospérant dans les mêmes conditions.
